--- a/Test Data/TC_71659_Verify_Maximum_Battery_Standby_Limits_FC.xlsx
+++ b/Test Data/TC_71659_Verify_Maximum_Battery_Standby_Limits_FC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3D0297-6468-4E77-BC48-A9F0596AA6C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="8" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Color Codes</t>
   </si>
@@ -128,12 +127,24 @@
   </si>
   <si>
     <t>FIRECLASS 240-2</t>
+  </si>
+  <si>
+    <t>AlarmLoadingDetail</t>
+  </si>
+  <si>
+    <t>StandbyLoadingDetail</t>
+  </si>
+  <si>
+    <t>Battery Alarm (A)</t>
+  </si>
+  <si>
+    <t>Battery Standby (A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,11 +539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H10" sqref="H10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +557,7 @@
     <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -554,7 +565,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -566,7 +577,7 @@
       </c>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -576,7 +587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -588,13 +599,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -616,8 +627,14 @@
       <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -639,8 +656,14 @@
       <c r="G8" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -662,8 +685,14 @@
       <c r="G9" s="11">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
@@ -684,6 +713,12 @@
       </c>
       <c r="G10" s="11">
         <v>5</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -697,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71659_Verify_Maximum_Battery_Standby_Limits_FC.xlsx
+++ b/Test Data/TC_71659_Verify_Maximum_Battery_Standby_Limits_FC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D83A66-8135-426F-8239-14549964700E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="8" r:id="rId1"/>
@@ -144,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,11 +540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:I10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,6 +556,8 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -732,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71659_Verify_Maximum_Battery_Standby_Limits_FC.xlsx
+++ b/Test Data/TC_71659_Verify_Maximum_Battery_Standby_Limits_FC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D83A66-8135-426F-8239-14549964700E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="8" r:id="rId1"/>
@@ -136,16 +135,16 @@
     <t>StandbyLoadingDetail</t>
   </si>
   <si>
-    <t>Battery Alarm (A)</t>
-  </si>
-  <si>
-    <t>Battery Standby (A)</t>
+    <t>Alarm Current(A)</t>
+  </si>
+  <si>
+    <t>Standby Current(A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,11 +539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71659_Verify_Maximum_Battery_Standby_Limits_FC.xlsx
+++ b/Test Data/TC_71659_Verify_Maximum_Battery_Standby_Limits_FC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A73B5A9-1E80-45C3-8367-98297B537906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="8" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>Color Codes</t>
   </si>
@@ -72,39 +73,9 @@
     <t>Row Number</t>
   </si>
   <si>
-    <t>CPU 800</t>
-  </si>
-  <si>
-    <t>2.500</t>
-  </si>
-  <si>
-    <t>MZX 125</t>
-  </si>
-  <si>
-    <t>P405D</t>
-  </si>
-  <si>
-    <t>Pro32xD</t>
-  </si>
-  <si>
-    <t>MX2-100</t>
-  </si>
-  <si>
-    <t>P885D</t>
-  </si>
-  <si>
-    <t>1.900</t>
-  </si>
-  <si>
     <t>PFI</t>
   </si>
   <si>
-    <t>5.000</t>
-  </si>
-  <si>
-    <t>3.100</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -139,12 +110,15 @@
   </si>
   <si>
     <t>Standby Current(A)</t>
+  </si>
+  <si>
+    <t>FC718D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -242,9 +216,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -539,11 +510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,24 +531,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -594,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="7" t="s">
@@ -624,27 +595,27 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>31</v>
+      <c r="A8" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>26</v>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
@@ -652,57 +623,57 @@
       <c r="E8" s="5">
         <v>16</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>3.1</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>32</v>
+      <c r="A9" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10">
+        <v>3</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5">
-        <v>16</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1.9</v>
-      </c>
-      <c r="G9" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>33</v>
+      <c r="A10" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>26</v>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
@@ -710,17 +681,17 @@
       <c r="E10" s="5">
         <v>16</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>3.1</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>5</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -734,121 +705,195 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E8" s="5">
+        <v>16</v>
+      </c>
+      <c r="F8" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="E9" s="5">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5">
+        <v>16</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5">
-        <v>13</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5">
-        <v>14</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5">
-        <v>13</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
-        <v>16</v>
+      <c r="I10" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Test Data/TC_71659_Verify_Maximum_Battery_Standby_Limits_FC.xlsx
+++ b/Test Data/TC_71659_Verify_Maximum_Battery_Standby_Limits_FC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A73B5A9-1E80-45C3-8367-98297B537906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A11F40C-479B-43AE-9689-306D53406B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>Color Codes</t>
   </si>
@@ -113,6 +113,24 @@
   </si>
   <si>
     <t>FC718D</t>
+  </si>
+  <si>
+    <t>FC64-2</t>
+  </si>
+  <si>
+    <t>FC240-2</t>
+  </si>
+  <si>
+    <t>3.100</t>
+  </si>
+  <si>
+    <t>5.000</t>
+  </si>
+  <si>
+    <t>3.000</t>
+  </si>
+  <si>
+    <t>NGC-1928/T957</t>
   </si>
 </sst>
 </file>
@@ -202,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -230,6 +248,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,7 +535,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="7" t="s">
@@ -609,7 +630,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -623,11 +644,11 @@
       <c r="E8" s="5">
         <v>16</v>
       </c>
-      <c r="F8" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>5</v>
+      <c r="F8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>26</v>
@@ -652,11 +673,11 @@
       <c r="E9" s="5">
         <v>16</v>
       </c>
-      <c r="F9" s="10">
-        <v>3</v>
-      </c>
-      <c r="G9" s="10">
-        <v>5</v>
+      <c r="F9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>26</v>
@@ -667,7 +688,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -681,11 +702,11 @@
       <c r="E10" s="5">
         <v>16</v>
       </c>
-      <c r="F10" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>5</v>
+      <c r="F10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>26</v>
